--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91991\Desktop\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243AECA-C6F4-49BB-A5F6-B1C644527924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -27,24 +33,12 @@
   <si>
     <t>Date</t>
   </si>
-  <si>
-    <t>VAIBHAV_RAJPAL</t>
-  </si>
-  <si>
-    <t>22:38:09</t>
-  </si>
-  <si>
-    <t>22:38:29</t>
-  </si>
-  <si>
-    <t>19-05-2022</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,20 +455,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91991\Desktop\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F243AECA-C6F4-49BB-A5F6-B1C644527924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>Username</t>
   </si>
@@ -32,13 +26,34 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>VAIBHAV_RAJPAL</t>
+  </si>
+  <si>
+    <t>VRINDA_RAJPAL</t>
+  </si>
+  <si>
+    <t>00:32:40</t>
+  </si>
+  <si>
+    <t>00:34:01</t>
+  </si>
+  <si>
+    <t>00:34:23</t>
+  </si>
+  <si>
+    <t>00:34:55</t>
+  </si>
+  <si>
+    <t>22-05-2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +116,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +162,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +194,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +228,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,16 +403,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -453,6 +422,34 @@
       </c>
       <c r="D1" s="1" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Username</t>
   </si>
@@ -31,19 +31,10 @@
     <t>VAIBHAV_RAJPAL</t>
   </si>
   <si>
-    <t>VRINDA_RAJPAL</t>
-  </si>
-  <si>
-    <t>00:32:40</t>
-  </si>
-  <si>
-    <t>00:34:01</t>
-  </si>
-  <si>
-    <t>00:34:23</t>
-  </si>
-  <si>
-    <t>00:34:55</t>
+    <t>15:13:53</t>
+  </si>
+  <si>
+    <t>15:14:20</t>
   </si>
   <si>
     <t>22-05-2022</t>
@@ -404,7 +395,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,27 +420,13 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
       <c r="D2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,10 +31,10 @@
     <t>VAIBHAV_RAJPAL</t>
   </si>
   <si>
-    <t>15:13:53</t>
-  </si>
-  <si>
-    <t>15:14:20</t>
+    <t>19:02:47</t>
+  </si>
+  <si>
+    <t>19:03:27</t>
   </si>
   <si>
     <t>22-05-2022</t>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -31,13 +31,13 @@
     <t>VAIBHAV_RAJPAL</t>
   </si>
   <si>
-    <t>19:02:47</t>
-  </si>
-  <si>
-    <t>19:03:27</t>
-  </si>
-  <si>
-    <t>22-05-2022</t>
+    <t>19:36:11</t>
+  </si>
+  <si>
+    <t>19:36:41</t>
+  </si>
+  <si>
+    <t>23-05-2022</t>
   </si>
 </sst>
 </file>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91991\Desktop\Project\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCE0E1-7CF2-450E-B338-DE4E06156B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
-    <t>Username</t>
+    <t>Name</t>
   </si>
   <si>
     <t>EntryTime</t>
@@ -27,24 +33,12 @@
   <si>
     <t>Date</t>
   </si>
-  <si>
-    <t>VAIBHAV_RAJPAL</t>
-  </si>
-  <si>
-    <t>19:36:11</t>
-  </si>
-  <si>
-    <t>19:36:41</t>
-  </si>
-  <si>
-    <t>23-05-2022</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +101,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -153,7 +155,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -185,9 +187,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -219,6 +239,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -394,14 +432,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -415,20 +455,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Attendance.xlsx
+++ b/Attendance.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91991\Desktop\Project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCE0E1-7CF2-450E-B338-DE4E06156B2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,10 +19,10 @@
     <t>Name</t>
   </si>
   <si>
-    <t>EntryTime</t>
+    <t>Entry Time</t>
   </si>
   <si>
-    <t>LeaveTime</t>
+    <t>Leave Time</t>
   </si>
   <si>
     <t>Date</t>
@@ -37,8 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,14 +95,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -155,7 +141,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -187,27 +173,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,24 +207,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -432,16 +382,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
